--- a/src/main/resources/dist.xlsx
+++ b/src/main/resources/dist.xlsx
@@ -52,19 +52,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="14.0"/>
-      <b val="true"/>
-      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,9 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -103,13 +96,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
